--- a/public/file/BILLING_EXAMPLE.xlsx
+++ b/public/file/BILLING_EXAMPLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia.dnn\Desktop\Appartment-Management-System-Client\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F6D841-E97A-4D96-994B-58BEABC8BA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE755DC-AD08-4D8A-B074-8E4C398920BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing list" sheetId="1" r:id="rId1"/>
@@ -22,30 +22,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -125,10 +114,10 @@
     <t>3010</t>
   </si>
   <si>
-    <t>Data valid?</t>
-  </si>
-  <si>
     <t>Note (if any)</t>
+  </si>
+  <si>
+    <t>Process success?</t>
   </si>
 </sst>
 </file>
@@ -650,10 +639,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -745,10 +734,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,10 +829,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/public/file/BILLING_EXAMPLE.xlsx
+++ b/public/file/BILLING_EXAMPLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE755DC-AD08-4D8A-B074-8E4C398920BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAD9720-0225-4813-95CA-02D3FDBDA06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Khoản thu 1</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>Process success?</t>
+  </si>
+  <si>
+    <t>Billing name</t>
+  </si>
+  <si>
+    <t>Billing name 1</t>
+  </si>
+  <si>
+    <t>Billing name 2</t>
   </si>
 </sst>
 </file>
@@ -587,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,11 +605,11 @@
     <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -614,7 +623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -628,7 +637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
@@ -639,20 +648,24 @@
         <v>9</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>ROW()-5</f>
         <v>1</v>
@@ -664,13 +677,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14" t="b">
+      <c r="F6" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>ROW()-5</f>
         <v>2</v>
@@ -681,17 +697,21 @@
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="15" t="b">
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="15" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/BILLING_EXAMPLE.xlsx
+++ b/public/file/BILLING_EXAMPLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAD9720-0225-4813-95CA-02D3FDBDA06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9FF5C4-CE7B-4AAE-BC30-F72C4E2BA0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Khoản thu 1</t>
   </si>
@@ -99,9 +99,6 @@
     <t>2025</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -127,15 +124,25 @@
   </si>
   <si>
     <t>Billing name 2</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>Payer's customer number</t>
+  </si>
+  <si>
+    <t>Payment date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -237,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,6 +304,9 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -596,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,11 +615,13 @@
     <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -620,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -637,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
@@ -648,71 +660,89 @@
         <v>9</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="20">
+        <v>45658</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="14" t="b">
+      <c r="H6" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>ROW()-5</f>
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15" t="b">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -754,10 +784,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,10 +879,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/public/file/BILLING_EXAMPLE.xlsx
+++ b/public/file/BILLING_EXAMPLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9FF5C4-CE7B-4AAE-BC30-F72C4E2BA0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943580A2-2DE6-4C8C-8E56-1DD867D41DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Khoản thu 1</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Payment date</t>
+  </si>
+  <si>
+    <t>Payer's name</t>
+  </si>
+  <si>
+    <t>John Doe</t>
   </si>
 </sst>
 </file>
@@ -296,6 +302,9 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,9 +313,6 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -606,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,12 +622,12 @@
     <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="30.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -635,7 +641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -649,43 +655,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>ROW()-5</f>
         <v>1</v>
@@ -702,17 +712,20 @@
       <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="17">
         <v>45658</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="14" t="b">
+      <c r="I6" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>ROW()-5</f>
         <v>2</v>
@@ -727,21 +740,23 @@
         <v>24</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="15" t="b">
+      <c r="H7" s="12"/>
+      <c r="I7" s="15" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -774,28 +789,28 @@
       <c r="E2" s="2"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -869,28 +884,28 @@
       <c r="E2" s="2"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">

--- a/public/file/BILLING_EXAMPLE.xlsx
+++ b/public/file/BILLING_EXAMPLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943580A2-2DE6-4C8C-8E56-1DD867D41DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE83DC2A-E458-4789-A7E7-28CCA5FE5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -706,7 +706,7 @@
       <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -736,7 +736,7 @@
       <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="11"/>

--- a/public/file/BILLING_EXAMPLE.xlsx
+++ b/public/file/BILLING_EXAMPLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia.dnn\Desktop\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE83DC2A-E458-4789-A7E7-28CCA5FE5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAD1C9D-661E-462D-A34A-FF9353E0BF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="900" windowWidth="26970" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing list" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -250,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -282,22 +293,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,23 +325,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,44 +634,44 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -715,15 +693,13 @@
       <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>45658</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="14" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -743,9 +719,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -789,28 +763,28 @@
       <c r="E2" s="2"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -820,13 +794,11 @@
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1000000</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="14" t="b">
-        <v>0</v>
-      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -836,15 +808,13 @@
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>50000</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="E7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -884,28 +854,28 @@
       <c r="E2" s="2"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -915,13 +885,11 @@
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1000000</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="14" t="b">
-        <v>0</v>
-      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -931,15 +899,13 @@
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>50000</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="E7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/public/file/BILLING_EXAMPLE.xlsx
+++ b/public/file/BILLING_EXAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia.dnn\Desktop\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAD1C9D-661E-462D-A34A-FF9353E0BF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D5B0E-378B-468F-8E33-1B7B2EBD82E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="900" windowWidth="26970" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing list" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -294,9 +295,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,6 +306,9 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -634,44 +635,44 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -693,7 +694,7 @@
       <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>45658</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -763,28 +764,28 @@
       <c r="E2" s="2"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -794,7 +795,7 @@
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="18">
         <v>1000000</v>
       </c>
       <c r="D6" s="13"/>
@@ -808,7 +809,7 @@
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="18">
         <v>50000</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -854,28 +855,28 @@
       <c r="E2" s="2"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -885,7 +886,7 @@
       <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="18">
         <v>1000000</v>
       </c>
       <c r="D6" s="13"/>
@@ -899,7 +900,7 @@
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="18">
         <v>50000</v>
       </c>
       <c r="D7" s="13" t="s">
